--- a/res_mapping_schemes/mapping_Serbia_RES.xlsx
+++ b/res_mapping_schemes/mapping_Serbia_RES.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B196A68F-EFD7-4E45-B3CB-EA1809D9C322}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5B8990-FAAE-114C-A02E-8F87CA71B714}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3020" yWindow="460" windowWidth="22260" windowHeight="12640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credits" sheetId="7" r:id="rId1"/>
     <sheet name="mapping_urban" sheetId="1" r:id="rId2"/>
     <sheet name="mapping_rural" sheetId="2" r:id="rId3"/>
+    <sheet name="mapping_class" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="203">
   <si>
     <t>1919–1945</t>
   </si>
@@ -386,14 +387,390 @@
   <si>
     <t>This mapping scheme was developed by the following individuals:</t>
   </si>
+  <si>
+    <t>The final set of building classes in the Serbia exposure model has been obtained using 'mapping_class'.</t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDL/HBET:4-7/0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR/LDUAL+CDL/HBET:4-7/0.0 </t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDL/HBET:4-7/15.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR/LDUAL+CDL/HBET:4-7/15.0 </t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDL/HBET:4-7/3.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR/LDUAL+CDL/HBET:4-7/3.75 </t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDL/HBET:4-7/7.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR/LDUAL+CDL/HBET:4-7/7.5  </t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDL/HBET:4-7/RSH1/FC/0.0</t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDL/HBET:4-7/RSH1/FC/15.0</t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDL/HBET:4-7/RSH1/FC/3.75</t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDL/HBET:4-7/RSH1/FC/7.5</t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDM/HBET:4-7/0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR/LDUAL+CDM/HBET:4-7/0.0 </t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDM/HBET:4-7/10.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR/LDUAL+CDM/HBET:4-7/10.0 </t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDM/HBET:4-7/2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR/LDUAL+CDM/HBET:4-7/2.5 </t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDM/HBET:4-7/5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR/LDUAL+CDM/HBET:4-7/5.0  </t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDM/HBET:4-7/RSH1/FC/0.0</t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDM/HBET:4-7/RSH1/FC/10.0</t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDM/HBET:4-7/RSH1/FC/2.5</t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDM/HBET:4-7/RSH1/FC/5.0</t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDN/HBET:4-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR/LDUAL+CDN/HBET:4-7 </t>
+  </si>
+  <si>
+    <t>CR+CIP/LDUAL+CDN/HBET:4-7/RSH1/FC</t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDL/HBET:4-7/0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR/LFINF+CDL/HBET:4-7/0.0 </t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDL/HBET:4-7/15.0</t>
+  </si>
+  <si>
+    <t>CR/LFINF+CDL/HBET:4-7/15.0</t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDL/HBET:4-7/3.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR/LFINF+CDL/HBET:4-7/3.75 </t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDL/HBET:4-7/7.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR/LFINF+CDL/HBET:4-7/7.5  </t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDL/HBET:4-7/BPD/EWMA/RSH1/FC/0.0</t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDL/HBET:4-7/BPD/EWMA/RSH1/FC/15.0</t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDL/HBET:4-7/BPD/EWMA/RSH1/FC/3.75</t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDL/HBET:4-7/BPD/EWMA/RSH1/FC/7.5</t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDM/HBET:4-7/0.0</t>
+  </si>
+  <si>
+    <t>CR/LFINF+CDM/HBET:4-7/0.0</t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDM/HBET:4-7/10.0</t>
+  </si>
+  <si>
+    <t>CR/LFINF+CDM/HBET:4-7/10.0</t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDM/HBET:4-7/2.5</t>
+  </si>
+  <si>
+    <t>CR/LFINF+CDM/HBET:4-7/2.5</t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDM/HBET:4-7/5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR/LFINF+CDM/HBET:4-7/5.0 </t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDM/HBET:4-7/BPD/EWMA/RSH1/FC/0.0</t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDM/HBET:4-7/BPD/EWMA/RSH1/FC/10.0</t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDM/HBET:4-7/BPD/EWMA/RSH1/FC/2.5</t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDM/HBET:4-7/BPD/EWMA/RSH1/FC/5.0</t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDN/HBET:4-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR/LFINF+CDN/HBET:4-7  </t>
+  </si>
+  <si>
+    <t>CR+CIP/LFINF+CDN/HBET:4-7/BPD/EWMA/RSH1/FC</t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDL/HBET:5-10/0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR+PC/LWAL+CDL/HBET:5-10/0.0  </t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDL/HBET:5-10/15.0</t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDL/HBET:5-10/3.75</t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDL/HBET:5-10/7.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR+PC/LWAL+CDL/HBET:5-10/7.5 </t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDL/HBET:5-10/RSH1/FC/0.0</t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDL/HBET:5-10/RSH1/FC/15.0</t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDL/HBET:5-10/RSH1/FC/3.75</t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDL/HBET:5-10/RSH1/FC/7.5</t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDM/HBET:5-10/0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR+PC/LWAL+CDM/HBET:5-10/0.0  </t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDM/HBET:5-10/10.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR+PC/LWAL+CDM/HBET:5-10/10.0 </t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDM/HBET:5-10/2.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR+PC/LWAL+CDM/HBET:5-10/2.5 </t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDM/HBET:5-10/5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR+PC/LWAL+CDM/HBET:5-10/5.0  </t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDM/HBET:5-10/RSH1/FC/0.0</t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDM/HBET:5-10/RSH1/FC/10.0</t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDM/HBET:5-10/RSH1/FC/2.5</t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDM/HBET:5-10/RSH1/FC/5.0</t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDN/HBET:5-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR+PC/LWAL+CDN/HBET:5-10 </t>
+  </si>
+  <si>
+    <t>CR+PC/LWAL+CDN/HBET:5-10/RSH1/FC</t>
+  </si>
+  <si>
+    <t>EU/LWAL+CDN/H:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR+ADO/LWAL+CDN/H:1  </t>
+  </si>
+  <si>
+    <t>EU+ETR/LWAL+CDN/H:1/BPD/RSH3+RMT1+RWO</t>
+  </si>
+  <si>
+    <t>MCF/LWAL+CDL/HBET:1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCF/LWAL+CDL/HBET:1-3 </t>
+  </si>
+  <si>
+    <t>MCF/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCF/LWAL+CDN/HBET:1-3 </t>
+  </si>
+  <si>
+    <t>MCF+CLBLH/LWAL+CDL/HBET:1-3</t>
+  </si>
+  <si>
+    <t>MCF+CLBLH/LWAL+CDL/HBET:1-3/BPD/RSH3+RMT1+RWO/FC</t>
+  </si>
+  <si>
+    <t>MCF+CLBLH/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>MCF+CLBLH/LWAL+CDN/HBET:1-3/BPD/RSH3+RMT1+RWO/FC</t>
+  </si>
+  <si>
+    <t>MUR/LWAL+CDN/H:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR/LWAL+CDN/H:1  </t>
+  </si>
+  <si>
+    <t>MUR/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t>MUR+CLBLH/LWAL+CDN/HBET:1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR+CLBLH/LWAL+CDN/HBET:1-2 </t>
+  </si>
+  <si>
+    <t>MUR+CLBLH/LWAL+CDN/HBET:1-2/BPD/RSH3+RMT1+RWO/FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR+CLBLH/LWAL+CDN/HBET:1-2/FM </t>
+  </si>
+  <si>
+    <t>MUR+CLBRS/LWAL+CDN/H:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/H:1  </t>
+  </si>
+  <si>
+    <t>MUR+CLBRS/LWAL+CDN/H:1/BPD/RSH2+RMT1+RWO</t>
+  </si>
+  <si>
+    <t>MUR+CLBRS/LWAL+CDN/HBET:1-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/HBET:1-2 </t>
+  </si>
+  <si>
+    <t>MUR+CLBRS/LWAL+CDN/HBET:1-2/FW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/HBET:1-2/FW  </t>
+  </si>
+  <si>
+    <t>MUR+CLBRS/LWAL+CDN/HBET:1-2/RSH3+RMT1+RWO/FW</t>
+  </si>
+  <si>
+    <t>MUR+CLBRS/LWAL+CDN/HBET:1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/HBET:1-3 </t>
+  </si>
+  <si>
+    <t>MUR+CLBRS/LWAL+CDN/HBET:1-3/BPD/RSH3+RMT1+RWO/FM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/HBET:1-3/FM </t>
+  </si>
+  <si>
+    <t>MUR+CLBRS/LWAL+CDN/HBET:2-5</t>
+  </si>
+  <si>
+    <t>MUR+CLBRS/LWAL+CDN/HBET:2-5/BPD/RSH3+RMT1+RWO/FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/HBET:2-5/FC </t>
+  </si>
+  <si>
+    <t>MUR+CLBRS/LWAL+CDN/HBET:3-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/HBET:3-5 </t>
+  </si>
+  <si>
+    <t>MUR+CLBRS/LWAL+CDN/HBET:3-5/BPD/RSH3+RMT1+RWO/FC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/HBET:3-5/FC </t>
+  </si>
+  <si>
+    <t>W/LWAL+CDN/H:1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W/LWAL+CDN/H:1  </t>
+  </si>
+  <si>
+    <t>W+WLI/LWAL+CDN/H:1</t>
+  </si>
+  <si>
+    <t>W+WLI/LWAL+CDN/H:1/BPD/EWE/RSH3+RMT1</t>
+  </si>
+  <si>
+    <t>ORIGINAL TAXONOMY</t>
+  </si>
+  <si>
+    <t>ESRM20 TAXONOMY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -462,27 +839,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -763,10 +1141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BC916A-5E4F-1E4C-9FB0-CF75D61FA2C9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -818,6 +1196,11 @@
       </c>
       <c r="C6" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1231,4 +1614,671 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67CD22E-78C7-1D47-840C-6324CDA05D7E}">
+  <dimension ref="A1:B81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A70" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A76" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/res_mapping_schemes/mapping_Serbia_RES.xlsx
+++ b/res_mapping_schemes/mapping_Serbia_RES.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5B8990-FAAE-114C-A02E-8F87CA71B714}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B5BB7E-8D05-2E46-893E-3DC57D86FA0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="460" windowWidth="22260" windowHeight="12640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3020" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credits" sheetId="7" r:id="rId1"/>
@@ -839,19 +839,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1143,7 +1136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BC916A-5E4F-1E4C-9FB0-CF75D61FA2C9}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1155,13 +1148,13 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1233,42 +1226,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="81.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1303,7 +1296,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1338,7 +1331,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="102" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1373,7 +1366,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1417,7 +1410,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1437,31 +1430,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="34" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1472,7 +1465,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1507,7 +1500,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="85" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1542,7 +1535,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1577,7 +1570,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1620,7 +1613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67CD22E-78C7-1D47-840C-6324CDA05D7E}">
   <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1631,650 +1624,650 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="7" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="7" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="7" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="7" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="7" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="7" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="7" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="7" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="7" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="7" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B44" s="7" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="7" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B48" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="7" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="7" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="7" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="7" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="10" t="s">
+      <c r="A61" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="7" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="10" t="s">
+      <c r="A62" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="7" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B64" s="10" t="s">
+      <c r="B64" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B66" s="10" t="s">
+      <c r="B66" s="7" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="7" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="B68" s="10" t="s">
+      <c r="B68" s="7" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="7" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="7" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="7" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B72" s="10" t="s">
+      <c r="B72" s="7" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="7" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B74" s="10" t="s">
+      <c r="B74" s="7" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="B76" s="10" t="s">
+      <c r="B76" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="7" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B78" s="10" t="s">
+      <c r="B78" s="7" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="10" t="s">
+      <c r="A79" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="10" t="s">
+      <c r="A80" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="B80" s="10" t="s">
+      <c r="B80" s="7" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="7" t="s">
         <v>198</v>
       </c>
     </row>

--- a/res_mapping_schemes/mapping_Serbia_RES.xlsx
+++ b/res_mapping_schemes/mapping_Serbia_RES.xlsx
@@ -3,15 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B5BB7E-8D05-2E46-893E-3DC57D86FA0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEC9C2D-E64B-484E-8DAD-9FEC2E54796A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3020" yWindow="460" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6540" yWindow="460" windowWidth="22260" windowHeight="12640" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Credits" sheetId="7" r:id="rId1"/>
     <sheet name="mapping_urban" sheetId="1" r:id="rId2"/>
     <sheet name="mapping_rural" sheetId="2" r:id="rId3"/>
-    <sheet name="mapping_class" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="81">
   <si>
     <t>1919–1945</t>
   </si>
@@ -342,9 +341,6 @@
 20% W/LWAL+CDN/H:1</t>
   </si>
   <si>
-    <t>Number of dwellings and year of construction</t>
-  </si>
-  <si>
     <t>2006
 or later</t>
   </si>
@@ -391,386 +387,16 @@
     <t>The final set of building classes in the Serbia exposure model has been obtained using 'mapping_class'.</t>
   </si>
   <si>
-    <t>CR+CIP/LDUAL+CDL/HBET:4-7/0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR/LDUAL+CDL/HBET:4-7/0.0 </t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDL/HBET:4-7/15.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR/LDUAL+CDL/HBET:4-7/15.0 </t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDL/HBET:4-7/3.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR/LDUAL+CDL/HBET:4-7/3.75 </t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDL/HBET:4-7/7.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR/LDUAL+CDL/HBET:4-7/7.5  </t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDL/HBET:4-7/RSH1/FC/0.0</t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDL/HBET:4-7/RSH1/FC/15.0</t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDL/HBET:4-7/RSH1/FC/3.75</t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDL/HBET:4-7/RSH1/FC/7.5</t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDM/HBET:4-7/0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR/LDUAL+CDM/HBET:4-7/0.0 </t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDM/HBET:4-7/10.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR/LDUAL+CDM/HBET:4-7/10.0 </t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDM/HBET:4-7/2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR/LDUAL+CDM/HBET:4-7/2.5 </t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDM/HBET:4-7/5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR/LDUAL+CDM/HBET:4-7/5.0  </t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDM/HBET:4-7/RSH1/FC/0.0</t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDM/HBET:4-7/RSH1/FC/10.0</t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDM/HBET:4-7/RSH1/FC/2.5</t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDM/HBET:4-7/RSH1/FC/5.0</t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDN/HBET:4-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR/LDUAL+CDN/HBET:4-7 </t>
-  </si>
-  <si>
-    <t>CR+CIP/LDUAL+CDN/HBET:4-7/RSH1/FC</t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDL/HBET:4-7/0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR/LFINF+CDL/HBET:4-7/0.0 </t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDL/HBET:4-7/15.0</t>
-  </si>
-  <si>
-    <t>CR/LFINF+CDL/HBET:4-7/15.0</t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDL/HBET:4-7/3.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR/LFINF+CDL/HBET:4-7/3.75 </t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDL/HBET:4-7/7.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR/LFINF+CDL/HBET:4-7/7.5  </t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDL/HBET:4-7/BPD/EWMA/RSH1/FC/0.0</t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDL/HBET:4-7/BPD/EWMA/RSH1/FC/15.0</t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDL/HBET:4-7/BPD/EWMA/RSH1/FC/3.75</t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDL/HBET:4-7/BPD/EWMA/RSH1/FC/7.5</t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDM/HBET:4-7/0.0</t>
-  </si>
-  <si>
-    <t>CR/LFINF+CDM/HBET:4-7/0.0</t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDM/HBET:4-7/10.0</t>
-  </si>
-  <si>
-    <t>CR/LFINF+CDM/HBET:4-7/10.0</t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDM/HBET:4-7/2.5</t>
-  </si>
-  <si>
-    <t>CR/LFINF+CDM/HBET:4-7/2.5</t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDM/HBET:4-7/5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR/LFINF+CDM/HBET:4-7/5.0 </t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDM/HBET:4-7/BPD/EWMA/RSH1/FC/0.0</t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDM/HBET:4-7/BPD/EWMA/RSH1/FC/10.0</t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDM/HBET:4-7/BPD/EWMA/RSH1/FC/2.5</t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDM/HBET:4-7/BPD/EWMA/RSH1/FC/5.0</t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDN/HBET:4-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR/LFINF+CDN/HBET:4-7  </t>
-  </si>
-  <si>
-    <t>CR+CIP/LFINF+CDN/HBET:4-7/BPD/EWMA/RSH1/FC</t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDL/HBET:5-10/0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR+PC/LWAL+CDL/HBET:5-10/0.0  </t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDL/HBET:5-10/15.0</t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDL/HBET:5-10/3.75</t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDL/HBET:5-10/7.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR+PC/LWAL+CDL/HBET:5-10/7.5 </t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDL/HBET:5-10/RSH1/FC/0.0</t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDL/HBET:5-10/RSH1/FC/15.0</t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDL/HBET:5-10/RSH1/FC/3.75</t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDL/HBET:5-10/RSH1/FC/7.5</t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDM/HBET:5-10/0.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR+PC/LWAL+CDM/HBET:5-10/0.0  </t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDM/HBET:5-10/10.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR+PC/LWAL+CDM/HBET:5-10/10.0 </t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDM/HBET:5-10/2.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR+PC/LWAL+CDM/HBET:5-10/2.5 </t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDM/HBET:5-10/5.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR+PC/LWAL+CDM/HBET:5-10/5.0  </t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDM/HBET:5-10/RSH1/FC/0.0</t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDM/HBET:5-10/RSH1/FC/10.0</t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDM/HBET:5-10/RSH1/FC/2.5</t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDM/HBET:5-10/RSH1/FC/5.0</t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDN/HBET:5-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR+PC/LWAL+CDN/HBET:5-10 </t>
-  </si>
-  <si>
-    <t>CR+PC/LWAL+CDN/HBET:5-10/RSH1/FC</t>
-  </si>
-  <si>
-    <t>EU/LWAL+CDN/H:1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR+ADO/LWAL+CDN/H:1  </t>
-  </si>
-  <si>
-    <t>EU+ETR/LWAL+CDN/H:1/BPD/RSH3+RMT1+RWO</t>
-  </si>
-  <si>
-    <t>MCF/LWAL+CDL/HBET:1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCF/LWAL+CDL/HBET:1-3 </t>
-  </si>
-  <si>
-    <t>MCF/LWAL+CDN/HBET:1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCF/LWAL+CDN/HBET:1-3 </t>
-  </si>
-  <si>
-    <t>MCF+CLBLH/LWAL+CDL/HBET:1-3</t>
-  </si>
-  <si>
-    <t>MCF+CLBLH/LWAL+CDL/HBET:1-3/BPD/RSH3+RMT1+RWO/FC</t>
-  </si>
-  <si>
-    <t>MCF+CLBLH/LWAL+CDN/HBET:1-3</t>
-  </si>
-  <si>
-    <t>MCF+CLBLH/LWAL+CDN/HBET:1-3/BPD/RSH3+RMT1+RWO/FC</t>
-  </si>
-  <si>
-    <t>MUR/LWAL+CDN/H:1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR/LWAL+CDN/H:1  </t>
-  </si>
-  <si>
-    <t>MUR/LWAL+CDN/HBET:1-3</t>
-  </si>
-  <si>
-    <t>MUR+CLBLH/LWAL+CDN/HBET:1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR+CLBLH/LWAL+CDN/HBET:1-2 </t>
-  </si>
-  <si>
-    <t>MUR+CLBLH/LWAL+CDN/HBET:1-2/BPD/RSH3+RMT1+RWO/FM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR+CLBLH/LWAL+CDN/HBET:1-2/FM </t>
-  </si>
-  <si>
-    <t>MUR+CLBRS/LWAL+CDN/H:1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/H:1  </t>
-  </si>
-  <si>
-    <t>MUR+CLBRS/LWAL+CDN/H:1/BPD/RSH2+RMT1+RWO</t>
-  </si>
-  <si>
-    <t>MUR+CLBRS/LWAL+CDN/HBET:1-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/HBET:1-2 </t>
-  </si>
-  <si>
-    <t>MUR+CLBRS/LWAL+CDN/HBET:1-2/FW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/HBET:1-2/FW  </t>
-  </si>
-  <si>
-    <t>MUR+CLBRS/LWAL+CDN/HBET:1-2/RSH3+RMT1+RWO/FW</t>
-  </si>
-  <si>
-    <t>MUR+CLBRS/LWAL+CDN/HBET:1-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/HBET:1-3 </t>
-  </si>
-  <si>
-    <t>MUR+CLBRS/LWAL+CDN/HBET:1-3/BPD/RSH3+RMT1+RWO/FM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/HBET:1-3/FM </t>
-  </si>
-  <si>
-    <t>MUR+CLBRS/LWAL+CDN/HBET:2-5</t>
-  </si>
-  <si>
-    <t>MUR+CLBRS/LWAL+CDN/HBET:2-5/BPD/RSH3+RMT1+RWO/FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/HBET:2-5/FC </t>
-  </si>
-  <si>
-    <t>MUR+CLBRS/LWAL+CDN/HBET:3-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/HBET:3-5 </t>
-  </si>
-  <si>
-    <t>MUR+CLBRS/LWAL+CDN/HBET:3-5/BPD/RSH3+RMT1+RWO/FC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR+CLBRS/LWAL+CDN/HBET:3-5/FC </t>
-  </si>
-  <si>
-    <t>W/LWAL+CDN/H:1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W/LWAL+CDN/H:1  </t>
-  </si>
-  <si>
-    <t>W+WLI/LWAL+CDN/H:1</t>
-  </si>
-  <si>
-    <t>W+WLI/LWAL+CDN/H:1/BPD/EWE/RSH3+RMT1</t>
-  </si>
-  <si>
-    <t>ORIGINAL TAXONOMY</t>
-  </si>
-  <si>
-    <t>ESRM20 TAXONOMY</t>
+    <t>Number of dwellings and year of construction</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -839,21 +465,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1136,7 +761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BC916A-5E4F-1E4C-9FB0-CF75D61FA2C9}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -1144,56 +769,56 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>69</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
         <v>71</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1205,9 +830,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1225,12 +848,12 @@
     <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="81.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -1254,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -1409,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
@@ -1431,10 +1054,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="34" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1458,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -1602,673 +1225,6 @@
       </c>
       <c r="K5" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67CD22E-78C7-1D47-840C-6324CDA05D7E}">
-  <dimension ref="A1:B81"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
   </sheetData>
